--- a/estudo hill_climbing.xlsx
+++ b/estudo hill_climbing.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="7305" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Explicação" sheetId="2" r:id="rId1"/>
+    <sheet name="Dados" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>Numero quaterniões:</t>
   </si>
@@ -65,9 +66,6 @@
     <t>2,370 / 7</t>
   </si>
   <si>
-    <t>Os valores apresentados são a diferença entre as variancias (Em modulo)/ numero de aceites</t>
-  </si>
-  <si>
     <t>14,0952 / 5</t>
   </si>
   <si>
@@ -192,15 +190,116 @@
   </si>
   <si>
     <t>0,0450 / 10</t>
+  </si>
+  <si>
+    <t>Significado:</t>
+  </si>
+  <si>
+    <t>Valores de testes:</t>
+  </si>
+  <si>
+    <t>Resumo:</t>
+  </si>
+  <si>
+    <t>Numero de iterações</t>
+  </si>
+  <si>
+    <t>Numero de aleatorios</t>
+  </si>
+  <si>
+    <t>impacto na interpretação de resultados</t>
+  </si>
+  <si>
+    <t>Numero de quaterniões</t>
+  </si>
+  <si>
+    <t>Valor de divisão</t>
+  </si>
+  <si>
+    <t>Numero de vezes que se repete o ciclo de hillClimbing</t>
+  </si>
+  <si>
+    <t>Quantidade de numeros que se gera para alterar os quaterniões</t>
+  </si>
+  <si>
+    <t>Quantidade de quaterniões gerados pela distribuição inicial</t>
+  </si>
+  <si>
+    <t>Os numero gerados aleatoriamente encontram-se entre o intervalo [-1,1]. Mas são demasiado grandes para se poder reproduzir pequenas mudanças nos quaterniões, sendo assim, é necessario dividir este valor por 10, 100 ou 1000 e ver qual o que tem melhor efeito no afastamento do quaternião</t>
+  </si>
+  <si>
+    <t>Da-se mais hipoteses de melhorar o resultado</t>
+  </si>
+  <si>
+    <t>Existe uma maior probabilidade de se gerar valores favoraveis</t>
+  </si>
+  <si>
+    <t>Quantos mais quaterniões existirem, mais proximos eles estarão (o que pode afetar grandemente o valor de divisão)</t>
+  </si>
+  <si>
+    <t>Relacionado com o numero de quaterniões, isto é, se forem poucos, estarão mais longe, logo teremos de fazer alterações mais significativas ao quaternião, se forem muitos, as distancias seram menores, pelo que é necessario altera-los com mais precisão</t>
+  </si>
+  <si>
+    <t>Aceitar o mais perto</t>
+  </si>
+  <si>
+    <t>Para saber se aceitamos o primeiro quaternião que consegue ter uma distancia acima da mediana, ou aceitamos o que consegui estar mais longe (dentro de um limite aceitavel)</t>
+  </si>
+  <si>
+    <t>O facto de aceitarmos o que está mais longe, ou não, podemos estar a piorar a distribuição global sem saber, pois, ao afastarmo-nos de um, podemos aproximar-nos demasiado de outro</t>
+  </si>
+  <si>
+    <t>0,00079 / 0</t>
+  </si>
+  <si>
+    <t>Este algoritmo (baseado na tecnica de hillClimbing) tenta melhorar uma distribuição das distancias minimas entre quaterniões (ou seja, a distancia ao mais proximo). Para tal gera vários  numeros que vão alterar os quaterniões que se encontram com uma distancia menor que a mediana. Depois testa cada um desses novos quaterniões e avalia se ficaram mais distantes ou não. Este algoritmo só aceita soluções globais que melhorem a variancia da distribuição, isto é, que diminuam a variancia (queremos que eles estejam todos a mesmoa distancia) que sejam melhores que as anteriores, nunca piorando a distribuição</t>
+  </si>
+  <si>
+    <t>Os valores apresentados são: a diferença entre as variancias (Em modulo)/ numero de aceites</t>
+  </si>
+  <si>
+    <t>0,0021 / 1</t>
+  </si>
+  <si>
+    <t>0,0017 / 0</t>
+  </si>
+  <si>
+    <t>0,0494 / 17</t>
+  </si>
+  <si>
+    <t>0,0010 / 1</t>
+  </si>
+  <si>
+    <t>0,0542 / 16</t>
+  </si>
+  <si>
+    <t>0,0055 / 0</t>
+  </si>
+  <si>
+    <t>0,0535 / 16</t>
+  </si>
+  <si>
+    <t>0,00095 / 0</t>
+  </si>
+  <si>
+    <t>0,0521 / 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -703,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,9 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,41 +856,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,18 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,6 +880,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,19 +900,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1252,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O38"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B21:H23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="I21:O23"/>
+    <mergeCell ref="B1:O7"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="B15:H20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="I13:O14"/>
+    <mergeCell ref="B13:H14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="I15:O20"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B11:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,64 +1708,60 @@
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="48" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1216,552 +1772,577 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>100</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="21">
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="40">
         <v>10</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21">
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40">
         <v>20</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="27" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>10</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>100</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>1000</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>10</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>100</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>1000</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="28" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="22">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="23">
+        <v>100</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="22">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="23">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="40">
+        <v>10</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40">
         <v>20</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="40" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17">
+        <v>100</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="16">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17">
+        <v>100</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="22">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="23">
+        <v>100</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33">
-        <v>100</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="32">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="33">
-        <v>100</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="21">
-        <v>10</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="21">
-        <v>20</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="17">
-        <v>10</v>
-      </c>
-      <c r="F19" s="18">
-        <v>100</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="17">
-        <v>10</v>
-      </c>
-      <c r="I19" s="18">
-        <v>100</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="32">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33">
-        <v>100</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="32">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="I23" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="33">
-        <v>100</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="36" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="26"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>4000</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="21">
+      <c r="C26" s="4"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="40">
         <v>10</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21">
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="40">
         <v>20</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>10</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <v>100</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>1000</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <v>10</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>100</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="28" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="22">
         <v>10</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="23">
+        <v>100</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="22">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="23">
+        <v>100</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="33">
-        <v>100</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="32">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="33">
-        <v>100</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="H32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E16:J16"/>
     <mergeCell ref="E17:G17"/>
@@ -1774,7 +2355,12 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/estudo hill_climbing.xlsx
+++ b/estudo hill_climbing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>Numero quaterniões:</t>
   </si>
@@ -174,18 +174,6 @@
     <t>0,0033 / 0</t>
   </si>
   <si>
-    <t>0,0092 / 19</t>
-  </si>
-  <si>
-    <t>20 ite</t>
-  </si>
-  <si>
-    <t>100 randoms</t>
-  </si>
-  <si>
-    <t>divisão 1000</t>
-  </si>
-  <si>
     <t>0,04715 / 9</t>
   </si>
   <si>
@@ -207,18 +195,12 @@
     <t>Numero de aleatorios</t>
   </si>
   <si>
-    <t>impacto na interpretação de resultados</t>
-  </si>
-  <si>
     <t>Numero de quaterniões</t>
   </si>
   <si>
     <t>Valor de divisão</t>
   </si>
   <si>
-    <t>Numero de vezes que se repete o ciclo de hillClimbing</t>
-  </si>
-  <si>
     <t>Quantidade de numeros que se gera para alterar os quaterniões</t>
   </si>
   <si>
@@ -234,12 +216,6 @@
     <t>Existe uma maior probabilidade de se gerar valores favoraveis</t>
   </si>
   <si>
-    <t>Quantos mais quaterniões existirem, mais proximos eles estarão (o que pode afetar grandemente o valor de divisão)</t>
-  </si>
-  <si>
-    <t>Relacionado com o numero de quaterniões, isto é, se forem poucos, estarão mais longe, logo teremos de fazer alterações mais significativas ao quaternião, se forem muitos, as distancias seram menores, pelo que é necessario altera-los com mais precisão</t>
-  </si>
-  <si>
     <t>Aceitar o mais perto</t>
   </si>
   <si>
@@ -252,12 +228,6 @@
     <t>0,00079 / 0</t>
   </si>
   <si>
-    <t>Este algoritmo (baseado na tecnica de hillClimbing) tenta melhorar uma distribuição das distancias minimas entre quaterniões (ou seja, a distancia ao mais proximo). Para tal gera vários  numeros que vão alterar os quaterniões que se encontram com uma distancia menor que a mediana. Depois testa cada um desses novos quaterniões e avalia se ficaram mais distantes ou não. Este algoritmo só aceita soluções globais que melhorem a variancia da distribuição, isto é, que diminuam a variancia (queremos que eles estejam todos a mesmoa distancia) que sejam melhores que as anteriores, nunca piorando a distribuição</t>
-  </si>
-  <si>
-    <t>Os valores apresentados são: a diferença entre as variancias (Em modulo)/ numero de aceites</t>
-  </si>
-  <si>
     <t>0,0021 / 1</t>
   </si>
   <si>
@@ -283,6 +253,30 @@
   </si>
   <si>
     <t>0,0521 / 16</t>
+  </si>
+  <si>
+    <t>Extra:</t>
+  </si>
+  <si>
+    <t>20 iterações, 100 randoms, divisão por 1000, 6624 quaterniões(tempo: 25min): 0,0278 / 15</t>
+  </si>
+  <si>
+    <t>Este algoritmo (baseado na tecnica de hillClimbing) tenta melhorar uma distribuição das distancias minimas entre quaterniões (ou seja, a distancia ao mais proximo) para que fiquem todos a mesma distancia. Para tal gera vários  numeros que vão alterar os quaterniões que se encontram com uma distancia menor que a mediana (ao mais proximo). Depois testa cada um desses novos quaterniões e avalia se ficaram mais distantes ou não. Este algoritmo só aceita soluções globais que melhorem a variancia da distribuição, isto é, que diminuam a variancia (queremos que eles estejam todos a mesma distancia) que sejam melhores que as anteriores, nunca piorando a distribuição</t>
+  </si>
+  <si>
+    <t>Numero de vezes que se repete a tecnica de hillClimbing</t>
+  </si>
+  <si>
+    <t>Impacto nos resultados</t>
+  </si>
+  <si>
+    <t>Quantos mais quaterniões existirem, mais proximos eles estarão (o que afeta o valor de divisão, pois existe uma distribuição melhor)</t>
+  </si>
+  <si>
+    <t>Relacionado com o numero de quaterniões, isto é, se forem poucos, estarão mais longe, logo teremos de fazer alterações mais significativas ao quaternião, se forem muitos, as distancias seram menores, pelo que é necessario altera-los com mais precisão (dividir por 100 ou 1000)</t>
+  </si>
+  <si>
+    <t>Os valores apresentados são: a diferença entre as variancias (Em modulo, os valores negativos faziam o excel fazer uma conta)/ numero de aceites</t>
   </si>
 </sst>
 </file>
@@ -802,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,7 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,35 +881,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,37 +926,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,7 +1260,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O7"/>
+      <selection activeCell="I21" sqref="I21:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,121 +1270,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="A1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -1391,278 +1396,278 @@
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="A10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
+        <v>54</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1690,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N38"/>
+  <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,53 +1718,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="C2" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="59"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="27"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -1780,14 +1785,14 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="24"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
@@ -1795,31 +1800,31 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="40">
+      <c r="E7" s="50">
         <v>10</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40">
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50">
         <v>20</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="15"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
@@ -1852,7 +1857,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="22">
@@ -1882,7 +1887,7 @@
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="23">
         <v>100</v>
       </c>
@@ -1904,13 +1909,13 @@
       <c r="J11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="22">
@@ -1937,14 +1942,14 @@
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="23">
         <v>100</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -1967,14 +1972,14 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
@@ -1982,29 +1987,29 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="40">
+      <c r="E17" s="50">
         <v>10</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40">
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="50">
         <v>20</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="15"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
@@ -2035,7 +2040,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="22">
@@ -2062,7 +2067,7 @@
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="23">
         <v>100</v>
       </c>
@@ -2081,13 +2086,13 @@
       <c r="I21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="22">
@@ -2114,7 +2119,7 @@
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="23">
         <v>100</v>
       </c>
@@ -2144,14 +2149,14 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
@@ -2159,29 +2164,29 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="40">
+      <c r="E26" s="50">
         <v>10</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="40">
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="50">
         <v>20</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="15"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -2212,7 +2217,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="22">
@@ -2231,15 +2236,15 @@
         <v>8</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
-      <c r="C30" s="47"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="23">
         <v>100</v>
       </c>
@@ -2247,24 +2252,24 @@
         <v>8</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="22">
@@ -2273,25 +2278,25 @@
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="60" t="s">
-        <v>77</v>
+      <c r="F31" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="19"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="23">
         <v>100</v>
       </c>
@@ -2308,37 +2313,166 @@
         <v>8</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>52</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
@@ -2355,12 +2489,6 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
